--- a/product_page/Product Page.xlsx
+++ b/product_page/Product Page.xlsx
@@ -1671,102 +1671,6 @@
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
@@ -1779,6 +1683,63 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1791,8 +1752,47 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1994,8 +1994,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1232647</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>117675</xdr:rowOff>
     </xdr:to>
@@ -2006,8 +2006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21336000" y="4838700"/>
-          <a:ext cx="4800600" cy="432000"/>
+          <a:off x="7635688" y="6173881"/>
+          <a:ext cx="6371665" cy="432000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3906,7 +3906,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3944,7 +3944,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6003,7 +6003,7 @@
           <a:lum contrast="40000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6359,8 +6359,8 @@
   </sheetPr>
   <dimension ref="A1:AN122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:O17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
@@ -6608,10 +6608,10 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="C10" s="122"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
       <c r="H10" s="102"/>
       <c r="I10" s="103"/>
       <c r="J10" s="103"/>
@@ -6620,18 +6620,18 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="C11" s="122"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
       <c r="H11" s="102"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="C12" s="122"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
       <c r="H12" s="102"/>
       <c r="I12" s="111"/>
       <c r="J12" s="111"/>
@@ -6640,37 +6640,37 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="124"/>
-      <c r="I13" s="162" t="s">
+      <c r="I13" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
       <c r="M13" s="103"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
-      <c r="A14" s="159"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
+      <c r="A14" s="165"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
       <c r="M14" s="103"/>
     </row>
     <row r="15" spans="1:40" ht="15.75" customHeight="1">
-      <c r="A15" s="159"/>
+      <c r="A15" s="165"/>
       <c r="D15" s="123"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
       <c r="M15" s="103"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
-      <c r="A16" s="159"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
+      <c r="A16" s="165"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
       <c r="M16" s="103"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
@@ -6791,35 +6791,35 @@
     </row>
     <row r="49" spans="1:40">
       <c r="A49" s="126"/>
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="170"/>
-      <c r="D49" s="173" t="s">
+      <c r="C49" s="176"/>
+      <c r="D49" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174" t="s">
+      <c r="E49" s="180"/>
+      <c r="F49" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="174"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="165"/>
-      <c r="J49" s="167"/>
+      <c r="G49" s="180"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="173"/>
       <c r="K49" s="103"/>
       <c r="L49" s="103"/>
     </row>
     <row r="50" spans="1:40">
       <c r="A50" s="126"/>
-      <c r="B50" s="171"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="168"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="174"/>
       <c r="K50" s="111"/>
       <c r="L50" s="111"/>
     </row>
@@ -7024,7 +7024,7 @@
       <c r="A58" s="119"/>
       <c r="B58" s="135"/>
       <c r="C58" s="119"/>
-      <c r="D58" s="194" t="s">
+      <c r="D58" s="162" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="151" t="s">
@@ -7064,15 +7064,15 @@
     <row r="59" spans="1:40" s="114" customFormat="1">
       <c r="A59" s="119"/>
       <c r="B59" s="135"/>
-      <c r="C59" s="190"/>
-      <c r="D59" s="190"/>
-      <c r="E59" s="191"/>
-      <c r="F59" s="192"/>
-      <c r="G59" s="192"/>
-      <c r="H59" s="192"/>
-      <c r="I59" s="192"/>
-      <c r="J59" s="192"/>
-      <c r="K59" s="193"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="161"/>
       <c r="L59" s="136"/>
       <c r="R59" s="119"/>
       <c r="S59" s="119"/>
@@ -7101,15 +7101,15 @@
     <row r="60" spans="1:40" s="114" customFormat="1">
       <c r="A60" s="119"/>
       <c r="B60" s="135"/>
-      <c r="C60" s="196" t="s">
+      <c r="C60" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="196"/>
-      <c r="E60" s="198" t="s">
+      <c r="D60" s="183"/>
+      <c r="E60" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="198"/>
-      <c r="G60" s="198"/>
+      <c r="F60" s="185"/>
+      <c r="G60" s="185"/>
       <c r="H60" s="127"/>
       <c r="I60" s="127"/>
       <c r="J60" s="127"/>
@@ -7142,15 +7142,15 @@
     <row r="61" spans="1:40" s="114" customFormat="1">
       <c r="A61" s="119"/>
       <c r="B61" s="135"/>
-      <c r="C61" s="197"/>
-      <c r="D61" s="197"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="199"/>
-      <c r="G61" s="199"/>
-      <c r="H61" s="192"/>
-      <c r="I61" s="192"/>
-      <c r="J61" s="192"/>
-      <c r="K61" s="193"/>
+      <c r="C61" s="184"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="186"/>
+      <c r="H61" s="160"/>
+      <c r="I61" s="160"/>
+      <c r="J61" s="160"/>
+      <c r="K61" s="161"/>
       <c r="L61" s="136"/>
       <c r="R61" s="119"/>
       <c r="S61" s="119"/>
@@ -7180,18 +7180,18 @@
       <c r="A62" s="119"/>
       <c r="B62" s="135"/>
       <c r="C62" s="119"/>
-      <c r="D62" s="195" t="s">
+      <c r="D62" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="160" t="s">
+      <c r="E62" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="160"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="160"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
       <c r="L62" s="136"/>
       <c r="R62" s="119"/>
       <c r="S62" s="119"/>
@@ -7708,7 +7708,7 @@
       <c r="A76" s="13"/>
       <c r="B76" s="144"/>
       <c r="C76" s="125"/>
-      <c r="D76" s="200" t="s">
+      <c r="D76" s="164" t="s">
         <v>63</v>
       </c>
       <c r="E76" s="153" t="s">
@@ -7873,13 +7873,13 @@
       <c r="B80" s="135"/>
       <c r="C80" s="155"/>
       <c r="D80" s="129"/>
-      <c r="E80" s="160"/>
-      <c r="F80" s="160"/>
-      <c r="G80" s="160"/>
-      <c r="H80" s="160"/>
-      <c r="I80" s="160"/>
-      <c r="J80" s="160"/>
-      <c r="K80" s="160"/>
+      <c r="E80" s="166"/>
+      <c r="F80" s="166"/>
+      <c r="G80" s="166"/>
+      <c r="H80" s="166"/>
+      <c r="I80" s="166"/>
+      <c r="J80" s="166"/>
+      <c r="K80" s="166"/>
       <c r="L80" s="136"/>
       <c r="R80" s="119"/>
       <c r="S80" s="119"/>
@@ -8087,26 +8087,26 @@
     </row>
     <row r="120" spans="18:39">
       <c r="R120" s="116"/>
-      <c r="S120" s="158"/>
-      <c r="T120" s="158"/>
-      <c r="U120" s="158"/>
-      <c r="V120" s="158"/>
-      <c r="W120" s="158"/>
-      <c r="X120" s="158"/>
-      <c r="Y120" s="158"/>
-      <c r="Z120" s="158"/>
-      <c r="AA120" s="158"/>
-      <c r="AB120" s="158"/>
-      <c r="AC120" s="158"/>
-      <c r="AD120" s="158"/>
-      <c r="AE120" s="158"/>
-      <c r="AF120" s="158"/>
-      <c r="AG120" s="158"/>
+      <c r="S120" s="187"/>
+      <c r="T120" s="187"/>
+      <c r="U120" s="187"/>
+      <c r="V120" s="187"/>
+      <c r="W120" s="187"/>
+      <c r="X120" s="187"/>
+      <c r="Y120" s="187"/>
+      <c r="Z120" s="187"/>
+      <c r="AA120" s="187"/>
+      <c r="AB120" s="187"/>
+      <c r="AC120" s="187"/>
+      <c r="AD120" s="187"/>
+      <c r="AE120" s="187"/>
+      <c r="AF120" s="187"/>
+      <c r="AG120" s="187"/>
       <c r="AH120" s="117"/>
-      <c r="AI120" s="158"/>
-      <c r="AJ120" s="158"/>
-      <c r="AK120" s="158"/>
-      <c r="AL120" s="158"/>
+      <c r="AI120" s="187"/>
+      <c r="AJ120" s="187"/>
+      <c r="AK120" s="187"/>
+      <c r="AL120" s="187"/>
       <c r="AM120" s="113"/>
     </row>
     <row r="121" spans="18:39">
@@ -8119,10 +8119,10 @@
       <c r="X121" s="120"/>
       <c r="Y121" s="120"/>
       <c r="Z121" s="120"/>
-      <c r="AA121" s="161"/>
-      <c r="AB121" s="161"/>
-      <c r="AC121" s="161"/>
-      <c r="AD121" s="161"/>
+      <c r="AA121" s="167"/>
+      <c r="AB121" s="167"/>
+      <c r="AC121" s="167"/>
+      <c r="AD121" s="167"/>
       <c r="AE121" s="113"/>
       <c r="AF121" s="121"/>
       <c r="AG121" s="121"/>
@@ -8143,10 +8143,10 @@
       <c r="X122" s="115"/>
       <c r="Y122" s="115"/>
       <c r="Z122" s="115"/>
-      <c r="AA122" s="161"/>
-      <c r="AB122" s="161"/>
-      <c r="AC122" s="161"/>
-      <c r="AD122" s="161"/>
+      <c r="AA122" s="167"/>
+      <c r="AB122" s="167"/>
+      <c r="AC122" s="167"/>
+      <c r="AD122" s="167"/>
       <c r="AE122" s="115"/>
       <c r="AF122" s="115"/>
       <c r="AG122" s="115"/>
@@ -8159,6 +8159,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AI120:AL120"/>
+    <mergeCell ref="S120:U120"/>
+    <mergeCell ref="V120:X120"/>
+    <mergeCell ref="Y120:AA120"/>
+    <mergeCell ref="AB120:AD120"/>
+    <mergeCell ref="AE120:AG120"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="E62:K62"/>
     <mergeCell ref="AA121:AD122"/>
@@ -8173,12 +8179,6 @@
     <mergeCell ref="F49:G50"/>
     <mergeCell ref="C60:D61"/>
     <mergeCell ref="E60:G61"/>
-    <mergeCell ref="AI120:AL120"/>
-    <mergeCell ref="S120:U120"/>
-    <mergeCell ref="V120:X120"/>
-    <mergeCell ref="Y120:AA120"/>
-    <mergeCell ref="AB120:AD120"/>
-    <mergeCell ref="AE120:AG120"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E69" r:id="rId1"/>
@@ -8294,31 +8294,31 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="182" t="s">
+      <c r="I4" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="182" t="s">
+      <c r="AB4" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="AC4" s="182"/>
-      <c r="AD4" s="182"/>
-      <c r="AF4" s="181" t="s">
+      <c r="AC4" s="188"/>
+      <c r="AD4" s="188"/>
+      <c r="AF4" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AG4" s="181"/>
-      <c r="AH4" s="181"/>
-      <c r="AI4" s="181"/>
-      <c r="AJ4" s="181"/>
-      <c r="AK4" s="181"/>
-      <c r="AL4" s="181"/>
-      <c r="AM4" s="181"/>
+      <c r="AG4" s="196"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
+      <c r="AK4" s="196"/>
+      <c r="AL4" s="196"/>
+      <c r="AM4" s="196"/>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
       <c r="B5" s="4"/>
@@ -8327,25 +8327,25 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="182"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="182"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AF5" s="196"/>
+      <c r="AG5" s="196"/>
+      <c r="AH5" s="196"/>
+      <c r="AI5" s="196"/>
+      <c r="AJ5" s="196"/>
+      <c r="AK5" s="196"/>
+      <c r="AL5" s="196"/>
+      <c r="AM5" s="196"/>
     </row>
     <row r="6" spans="1:39" ht="17.25" customHeight="1">
       <c r="B6" s="4"/>
@@ -8475,9 +8475,9 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
       <c r="L11" s="10"/>
       <c r="M11" s="98"/>
       <c r="W11" s="10"/>
@@ -8485,9 +8485,9 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
       <c r="AE11" s="10"/>
     </row>
     <row r="12" spans="1:39" s="9" customFormat="1" ht="24" customHeight="1">
@@ -8499,9 +8499,9 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
       <c r="L12" s="10"/>
       <c r="M12" s="98"/>
       <c r="W12" s="10"/>
@@ -8509,9 +8509,9 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
       <c r="AE12" s="10"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
@@ -8521,17 +8521,17 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="177"/>
-      <c r="AC13" s="177"/>
-      <c r="AD13" s="177"/>
+      <c r="AB13" s="191"/>
+      <c r="AC13" s="191"/>
+      <c r="AD13" s="191"/>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
       <c r="B14" s="4"/>
@@ -8540,17 +8540,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="177"/>
-      <c r="AC14" s="177"/>
-      <c r="AD14" s="177"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="191"/>
+      <c r="AD14" s="191"/>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
       <c r="B15" s="4"/>
@@ -8559,17 +8559,17 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="177"/>
-      <c r="AC15" s="177"/>
-      <c r="AD15" s="177"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="4"/>
@@ -8578,17 +8578,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="177"/>
-      <c r="AC16" s="177"/>
-      <c r="AD16" s="177"/>
+      <c r="AB16" s="191"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="191"/>
     </row>
     <row r="17" spans="2:30" ht="24" customHeight="1">
       <c r="B17" s="4"/>
@@ -8654,17 +8654,17 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="21"/>
-      <c r="AB20" s="178"/>
-      <c r="AC20" s="178"/>
-      <c r="AD20" s="178"/>
+      <c r="AB20" s="192"/>
+      <c r="AC20" s="192"/>
+      <c r="AD20" s="192"/>
     </row>
     <row r="21" spans="2:30" ht="17.25" customHeight="1">
       <c r="B21" s="4"/>
@@ -8673,16 +8673,16 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="195"/>
       <c r="K21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="179"/>
-      <c r="AC21" s="180"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="195"/>
       <c r="AD21" s="4"/>
     </row>
     <row r="22" spans="2:30" ht="15">
@@ -8692,16 +8692,16 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="195"/>
       <c r="K22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="179"/>
-      <c r="AC22" s="180"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="195"/>
       <c r="AD22" s="4"/>
     </row>
     <row r="23" spans="2:30" ht="15">
@@ -8946,29 +8946,29 @@
     </row>
     <row r="74" spans="1:30" ht="18.75">
       <c r="A74" s="4"/>
-      <c r="B74" s="185"/>
-      <c r="C74" s="185"/>
-      <c r="D74" s="185"/>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="185"/>
-      <c r="H74" s="185"/>
-      <c r="I74" s="185"/>
-      <c r="J74" s="185"/>
-      <c r="K74" s="185"/>
+      <c r="B74" s="193"/>
+      <c r="C74" s="193"/>
+      <c r="D74" s="193"/>
+      <c r="E74" s="193"/>
+      <c r="F74" s="193"/>
+      <c r="G74" s="193"/>
+      <c r="H74" s="193"/>
+      <c r="I74" s="193"/>
+      <c r="J74" s="193"/>
+      <c r="K74" s="193"/>
     </row>
     <row r="75" spans="1:30" ht="30.75" customHeight="1">
       <c r="A75" s="4"/>
-      <c r="B75" s="184"/>
-      <c r="C75" s="184"/>
-      <c r="D75" s="184"/>
-      <c r="E75" s="184"/>
-      <c r="F75" s="184"/>
-      <c r="G75" s="184"/>
-      <c r="H75" s="184"/>
-      <c r="I75" s="184"/>
-      <c r="J75" s="184"/>
-      <c r="K75" s="184"/>
+      <c r="B75" s="189"/>
+      <c r="C75" s="189"/>
+      <c r="D75" s="189"/>
+      <c r="E75" s="189"/>
+      <c r="F75" s="189"/>
+      <c r="G75" s="189"/>
+      <c r="H75" s="189"/>
+      <c r="I75" s="189"/>
+      <c r="J75" s="189"/>
+      <c r="K75" s="189"/>
     </row>
     <row r="76" spans="1:30" ht="30.75" customHeight="1">
       <c r="A76" s="4"/>
@@ -9693,6 +9693,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AF4:AM5"/>
+    <mergeCell ref="AB4:AD5"/>
+    <mergeCell ref="AB11:AD12"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AB15:AD15"/>
     <mergeCell ref="I4:K5"/>
     <mergeCell ref="B75:K75"/>
     <mergeCell ref="I11:K12"/>
@@ -9704,16 +9714,6 @@
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AF4:AM5"/>
-    <mergeCell ref="AB4:AD5"/>
-    <mergeCell ref="AB11:AD12"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AB15:AD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9936,28 +9936,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="39" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="44" t="s">
@@ -10006,11 +10006,11 @@
       <c r="T5" s="47"/>
     </row>
     <row r="6" spans="1:20" ht="21" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
       <c r="D6" s="55"/>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
@@ -10021,11 +10021,11 @@
       <c r="K6" s="50"/>
     </row>
     <row r="8" spans="1:20" ht="21" customHeight="1">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
       <c r="D8" s="55"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -10036,11 +10036,11 @@
       <c r="K8" s="50"/>
     </row>
     <row r="10" spans="1:20" ht="21" customHeight="1">
-      <c r="A10" s="187" t="s">
+      <c r="A10" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
       <c r="D10" s="55"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49"/>
@@ -10051,11 +10051,11 @@
       <c r="K10" s="50"/>
     </row>
     <row r="12" spans="1:20" ht="21" customHeight="1">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
       <c r="D12" s="55"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -10066,11 +10066,11 @@
       <c r="K12" s="50"/>
     </row>
     <row r="14" spans="1:20" ht="21" customHeight="1">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
       <c r="D14" s="55"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
@@ -10105,11 +10105,11 @@
       <c r="T16" s="45"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="198"/>
       <c r="D18" s="55"/>
       <c r="E18" s="48"/>
       <c r="F18" s="49"/>
@@ -10138,11 +10138,11 @@
       <c r="P19" s="60"/>
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="55"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -10171,11 +10171,11 @@
       <c r="P21" s="60"/>
     </row>
     <row r="22" spans="1:16" ht="100.5" customHeight="1">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="198"/>
       <c r="D22" s="55"/>
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
@@ -10186,11 +10186,11 @@
       <c r="K22" s="50"/>
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1">
-      <c r="A24" s="187" t="s">
+      <c r="A24" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="55"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -10201,21 +10201,21 @@
       <c r="K24" s="50"/>
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="187"/>
-      <c r="C36" s="187"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="198"/>
       <c r="D36" s="55"/>
       <c r="E36" s="56"/>
       <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="58"/>
-      <c r="J36" s="188" t="s">
+      <c r="J36" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="188"/>
-      <c r="L36" s="189"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="200"/>
       <c r="M36" s="56"/>
       <c r="N36" s="57"/>
       <c r="O36" s="57"/>
